--- a/每週買賣報表/賣出/每週賣出總表2022-09-20.xlsx
+++ b/每週買賣報表/賣出/每週賣出總表2022-09-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>關鍵點賣出</t>
   </si>
@@ -37,88 +37,130 @@
     <t>空單回補</t>
   </si>
   <si>
-    <t>1789</t>
-  </si>
-  <si>
-    <t>2313</t>
-  </si>
-  <si>
-    <t>5388</t>
-  </si>
-  <si>
-    <t>6409</t>
-  </si>
-  <si>
-    <t>3092</t>
-  </si>
-  <si>
-    <t>3498</t>
-  </si>
-  <si>
-    <t>3669</t>
-  </si>
-  <si>
-    <t>4760</t>
-  </si>
-  <si>
-    <t>5215</t>
-  </si>
-  <si>
-    <t>5474</t>
-  </si>
-  <si>
-    <t>6230</t>
+    <t>1444</t>
+  </si>
+  <si>
+    <t>1712</t>
   </si>
   <si>
     <t>1720</t>
   </si>
   <si>
+    <t>1733</t>
+  </si>
+  <si>
+    <t>2065</t>
+  </si>
+  <si>
+    <t>3209</t>
+  </si>
+  <si>
+    <t>3531</t>
+  </si>
+  <si>
+    <t>4543</t>
+  </si>
+  <si>
     <t>4557</t>
   </si>
   <si>
-    <t>1503</t>
-  </si>
-  <si>
-    <t>2515</t>
-  </si>
-  <si>
-    <t>4105</t>
-  </si>
-  <si>
-    <t>6283</t>
-  </si>
-  <si>
-    <t>9925</t>
-  </si>
-  <si>
-    <t>2329</t>
-  </si>
-  <si>
-    <t>2457</t>
-  </si>
-  <si>
-    <t>2607</t>
-  </si>
-  <si>
-    <t>3016</t>
-  </si>
-  <si>
-    <t>3078</t>
-  </si>
-  <si>
-    <t>3260</t>
-  </si>
-  <si>
-    <t>3526</t>
-  </si>
-  <si>
-    <t>3704</t>
-  </si>
-  <si>
-    <t>6438</t>
-  </si>
-  <si>
-    <t>6509</t>
+    <t>4906</t>
+  </si>
+  <si>
+    <t>5278</t>
+  </si>
+  <si>
+    <t>6469</t>
+  </si>
+  <si>
+    <t>8234</t>
+  </si>
+  <si>
+    <t>8420</t>
+  </si>
+  <si>
+    <t>1325</t>
+  </si>
+  <si>
+    <t>3031</t>
+  </si>
+  <si>
+    <t>3306</t>
+  </si>
+  <si>
+    <t>3437</t>
+  </si>
+  <si>
+    <t>3563</t>
+  </si>
+  <si>
+    <t>3663</t>
+  </si>
+  <si>
+    <t>4735</t>
+  </si>
+  <si>
+    <t>4989</t>
+  </si>
+  <si>
+    <t>6274</t>
+  </si>
+  <si>
+    <t>8086</t>
+  </si>
+  <si>
+    <t>1321</t>
+  </si>
+  <si>
+    <t>1339</t>
+  </si>
+  <si>
+    <t>2362</t>
+  </si>
+  <si>
+    <t>2467</t>
+  </si>
+  <si>
+    <t>2534</t>
+  </si>
+  <si>
+    <t>3617</t>
+  </si>
+  <si>
+    <t>4566</t>
+  </si>
+  <si>
+    <t>9924</t>
+  </si>
+  <si>
+    <t>1582</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>2355</t>
+  </si>
+  <si>
+    <t>2421</t>
+  </si>
+  <si>
+    <t>2428</t>
+  </si>
+  <si>
+    <t>3022</t>
+  </si>
+  <si>
+    <t>3023</t>
+  </si>
+  <si>
+    <t>6121</t>
+  </si>
+  <si>
+    <t>8105</t>
+  </si>
+  <si>
+    <t>3515</t>
   </si>
 </sst>
 </file>
@@ -476,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -533,16 +575,13 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -553,13 +592,13 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -570,73 +609,147 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="H9" t="s">
-        <v>32</v>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="H10" t="s">
-        <v>33</v>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="H11" t="s">
-        <v>34</v>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
